--- a/src/test/resources/excel/道具.xlsx
+++ b/src/test/resources/excel/道具.xlsx
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -71,14 +71,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,122 +201,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,24 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +462,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,6 +500,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -519,148 +519,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,7 +995,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="1"/>

--- a/src/test/resources/excel/道具.xlsx
+++ b/src/test/resources/excel/道具.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -22,7 +22,13 @@
     <t>道具名称</t>
   </si>
   <si>
+    <t>Item1</t>
+  </si>
+  <si>
     <t>礼包1</t>
+  </si>
+  <si>
+    <t>Item2</t>
   </si>
   <si>
     <t>礼包2</t>
@@ -49,9 +55,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -71,12 +77,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -84,49 +113,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,32 +190,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,42 +215,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,25 +229,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,157 +355,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +420,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,6 +495,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -461,206 +520,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,7 +1001,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1013,45 +1019,45 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/道具.xlsx
+++ b/src/test/resources/excel/道具.xlsx
@@ -1001,7 +1001,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="1"/>
